--- a/房价预测/模型、结果和参数.xlsx
+++ b/房价预测/模型、结果和参数.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Python\竞赛\房价预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBD2FEC-A2D7-4CBC-8F11-536A2E3E1C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A212805-5050-4661-98A5-6A3B42EDA803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="1215" windowWidth="21600" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="目标" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,31 +36,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'n_estimators': 149, 'learning_rate': 0.1, 'max_depth': 3, 'min_samples_split': 2, 'min_samples_leaf': 1, 'max_features': 70}</t>
-  </si>
-  <si>
     <t>GBDT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mean_absolute_percentage_error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'n_estimators': 312, 'max_depth': 99, 'min_samples_split': 2, 'min_samples_leaf': 1, 'max_features': 87}</t>
-  </si>
-  <si>
     <t>Adaboost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'learning_rate': 1.0, 'base_estimator__max_depth': 82, 'base_estimator__min_samples_split': 2, 'base_estimator__min_samples_leaf': 2, 'base_estimator__max_features': 133, 'base_estimator__max_leaf_nodes': 772, 'n_estimators': 999}</t>
-  </si>
-  <si>
     <t>得分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,14 +56,118 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'svr__C': 10.0, 'svr__gamma': 0.01907299701919568, 'svr__epsilon': 0.01, 'svr__kernel': 'linear'}</t>
+    <t>Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'model__max_depth': 377, 'model__min_samples_split': 2, 'model__min_samples_leaf': 19, 'model__max_features': 158}</t>
+  </si>
+  <si>
+    <t>训练误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'svr__C': 11.169480627782885, 'svr__gamma': 0.00013315071186570328}</t>
+  </si>
+  <si>
+    <t>MSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adaboost_SVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'base_estimator__C': 10.879585646155862, 'base_estimator__gamma': 0.000506547522932075, 'learning_rate': 0.31729633401624546, 'n_estimators': 295}</t>
+  </si>
+  <si>
+    <t>Bagging_SVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'model__base_estimator__C': 59.1069861908854, 'model__base_estimator__gamma': 8.693959087324277e-05, 'model__n_estimators': 96</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 1.0, 'base_estimator__max_depth': 99, 'base_estimator__min_samples_split': 2, 'base_estimator__min_samples_leaf': 7, 'base_estimator__max_features': 71, 'base_estimator__max_leaf_nodes': 1196, 'n_estimators': 999}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'n_neighbors': 5, 'p': 1, 'weights': 'distance'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'n_estimators': 937, 'max_depth': 55, 'min_samples_split': 2, 'min_samples_leaf': 1, 'max_features': 64}</t>
+  </si>
+  <si>
+    <t>AutoSklearn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'n_estimators': 286, 'learning_rate': 0.1, 'max_depth': 99, 'min_samples_split': 839, 'min_samples_leaf': 1, 'max_features': 223}</t>
+  </si>
+  <si>
+    <t>ExtraTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'n_estimators': 204, 'max_depth': 99, 'min_samples_split': 2, 'min_samples_leaf': 1, 'max_features': 223}</t>
+  </si>
+  <si>
+    <t>voting（部分模型和全部模型效果差不多）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stacking（部分模型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stacking（全部模型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'svr__alpha': 401.9386973377127</t>
+  </si>
+  <si>
+    <t>ElasticNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'svr__alpha': 0.09375319907758553, 'svr__l1_ratio': 0.04448272315858528}</t>
+  </si>
+  <si>
+    <t>{'svr__alpha': 0.0042713282389957195}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack（去除部分不好的模型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack（加上了线性模型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +181,31 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,8 +228,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -393,84 +527,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.4768136049062301E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.2931588964524601E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.12805</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.27790394413671E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5.2515499105472404E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.15537000000000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.4985396051917303E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.13850999999999999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>-8.7646582464725606E-2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0.13458000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>-9.6733318065926402E-2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" s="3">
+        <v>1.8317254901985599E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.27862524867283E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.13883000000000001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>0.14301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B6" s="2">
+        <v>2.2462666426156599E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9.52718797057742E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.13749</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>-9.4893972113830993E-2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B7" s="3">
+        <v>3.6591299797733297E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.3134470588509599E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>0.14032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>-0.11530418102977399</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.2291394203970999E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.8334986546371906E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.13988999999999999</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.1012441944240601E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.18612000000000001</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-1.82275096940279E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7.99068549208296E-28</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.14449000000000001</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.79369810941907E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.13133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3.18822764676709E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.12438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-1.8652423611805601E-2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1.12952516914911E-2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.13916000000000001</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.97476215223619E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.12584000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5">
+        <v>-1.8857372311275801E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.1474190112483899E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.13544</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5">
+        <v>-1.8038466701832699E-2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.18916721386107E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.13544999999999999</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.1852924319285499E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.12592999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3.5750853602928199E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.12509000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -478,4 +825,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C314980-B7B8-4126-B5A9-6DA98C0966E3}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1">
+        <v>0.1201</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>